--- a/data/San Pedro.xlsx
+++ b/data/San Pedro.xlsx
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
+          <t>Plantel de Aves Patagua</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,16 +3794,16 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>Agrícola Chorombo S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>200</v>
+        <v>8350</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5434881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Plantel de Aves Patagua</t>
+          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,16 +3842,16 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Agrícola Chorombo S.A.</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>8350</v>
+        <v>200</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5434881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4995,11 +4995,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5008,12 +5008,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5043,11 +5043,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5056,12 +5056,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Embalse de acumulación de aguas de riego Fundo Trinidad, sector Longovilo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5331,11 +5331,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>AGRICOLA LA TRINIDAD LIMITADA</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>680</v>
+        <v>160</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3056315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Embalse de acumulación de aguas de riego Fundo Trinidad, sector Longovilo (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5379,11 +5379,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>AGRICOLA LA TRINIDAD LIMITADA</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>160</v>
+        <v>680</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3056315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler Demetrío.</t>
+          <t>Grupo de Engorda de Pollos Broiler Las Cornisas</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8997,7 +8997,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2894&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2883&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler La Fiera</t>
+          <t>Grupo de Engorda de Pollos Broiler</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,7 +9031,7 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>2370</v>
+        <v>1930</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler Las Cornisas</t>
+          <t>Grupo de Engorda de Pollos Broiler Demetrío.</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9093,7 +9093,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2883&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2894&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler</t>
+          <t>Grupo de Engorda de Pollos Broiler La Fiera</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1930</v>
+        <v>2370</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">

--- a/data/San Pedro.xlsx
+++ b/data/San Pedro.xlsx
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Plantel de Aves Patagua</t>
+          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,16 +3794,16 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Agrícola Chorombo S.A.</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>8350</v>
+        <v>200</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5434881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
+          <t>Plantel de Aves Patagua</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,16 +3842,16 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>Agrícola Chorombo S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>200</v>
+        <v>8350</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5434881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4995,11 +4995,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5008,12 +5008,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5043,11 +5043,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5056,12 +5056,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Embalse de acumulación de aguas de riego Fundo Trinidad, sector Longovilo (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5331,11 +5331,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>AGRICOLA LA TRINIDAD LIMITADA</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>160</v>
+        <v>680</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3056315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Embalse de acumulación de aguas de riego Fundo Trinidad, sector Longovilo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5379,11 +5379,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>AGRICOLA LA TRINIDAD LIMITADA</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>680</v>
+        <v>160</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3056315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler Las Cornisas</t>
+          <t>Grupo de Engorda de Pollos Broiler Demetrío.</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8997,7 +8997,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2883&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2894&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler</t>
+          <t>Grupo de Engorda de Pollos Broiler La Fiera</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,7 +9031,7 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1930</v>
+        <v>2370</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler Demetrío.</t>
+          <t>Grupo de Engorda de Pollos Broiler Las Cornisas</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9093,7 +9093,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2894&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2883&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler La Fiera</t>
+          <t>Grupo de Engorda de Pollos Broiler</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>2370</v>
+        <v>1930</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">

--- a/data/San Pedro.xlsx
+++ b/data/San Pedro.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Pedro.xlsx
+++ b/data/San Pedro.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J205"/>
+  <dimension ref="A1:J206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Modificación Planta de aceite de oliva AgroReservas de Chile</t>
+          <t>TRANQUE LA CABAÑA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Agroreservas de Chile SpA</t>
+          <t>Sociedad Agrícola El Porvenir S. A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>440</v>
+        <v>356</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/05/2021</t>
+          <t>18/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148725281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156750797&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Proyecto Parque Fotovoltaico Llancay</t>
+          <t>Modificación Planta de aceite de oliva AgroReservas de Chile</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Solar TI Treinta y Cuatro SpA</t>
+          <t>Agroreservas de Chile SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>12000</v>
+        <v>440</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21/04/2021</t>
+          <t>20/05/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151513067&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148725281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lirio Solar</t>
+          <t>Proyecto Parque Fotovoltaico Llancay</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CVE Proyecto Veinticinco SpA</t>
+          <t>Solar TI Treinta y Cuatro SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>19/02/2021</t>
+          <t>21/04/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150831983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151513067&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Andino Las Pataguas</t>
+          <t>Lirio Solar</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>PARQUE FOTOVOLTAICO ANDINO LAS PATAGUAS SPA</t>
+          <t>CVE Proyecto Veinticinco SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>150000</v>
+        <v>9000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>21/01/2021</t>
+          <t>19/02/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149726158&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150831983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Empréstito Las Arañas</t>
+          <t>Parque Fotovoltaico Andino Las Pataguas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SACYR CHILE S.A.</t>
+          <t>PARQUE FOTOVOLTAICO ANDINO LAS PATAGUAS SPA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>30000</v>
+        <v>150000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>19/01/2021</t>
+          <t>21/01/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149636084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149726158&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parque Solar Villa</t>
+          <t>Empréstito Las Arañas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Solar TI Veinticuatro SpA</t>
+          <t>SACYR CHILE S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6565</v>
+        <v>30000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22/09/2020</t>
+          <t>19/01/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148373183&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149636084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Actualizaciones de Ingeniería y Construcción Obras 7ª, 8ª y 9ª Etapas Peraltamiento Embalse Carén</t>
+          <t>Parque Solar Villa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,20 +722,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Solar TI Veinticuatro SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>473000</v>
+        <v>6565</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>07/08/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147557521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148373183&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Chagual</t>
+          <t>Actualizaciones de Ingeniería y Construcción Obras 7ª, 8ª y 9ª Etapas Peraltamiento Embalse Carén</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,20 +770,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CVE Proyecto Treinta SpA</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>11200</v>
+        <v>473000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/06/2020</t>
+          <t>07/08/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146943410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147557521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Savona Solar</t>
+          <t>Parque Fotovoltaico Chagual</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Savona Solar SpA</t>
+          <t>CVE Proyecto Treinta SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>7000</v>
+        <v>11200</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>19/05/2020</t>
+          <t>23/06/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146636355&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146943410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>18/04/2020</t>
+          <t>19/05/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146362277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146636355&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Nuevo Campamento Carén - División El Teniente</t>
+          <t>Planta Fotovoltaica Savona Solar</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Savona Solar SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>07/04/2020</t>
+          <t>18/04/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146082969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146362277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Proyecto Embalse DIA Las Arañas</t>
+          <t>Nuevo Campamento Carén - División El Teniente</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Agrícola Las Arañas S.A</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2250</v>
+        <v>25000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>20/02/2020</t>
+          <t>07/04/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145693170&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146082969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Proyecto Embalse DIA Las Arañas</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,30 +1010,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Agrícola Las Arañas S.A</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>25000</v>
+        <v>2250</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>20/02/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145693170&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Membrillo</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,20 +1058,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Membrillo Solar SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>7100</v>
+        <v>25000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145253552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Palermo Solar SpA</t>
+          <t>Parque Fotovoltaico El Membrillo</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>GPG Generación Distribuida SpA</t>
+          <t>Membrillo Solar SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>14000</v>
+        <v>7100</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>29/10/2019</t>
+          <t>20/12/2019</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144521828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145253552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica San Ramiro</t>
+          <t>Planta Fotovoltaica Palermo Solar SpA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>PELEQUEN SUR SPA</t>
+          <t>GPG Generación Distribuida SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>10360</v>
+        <v>14000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20/05/2019</t>
+          <t>29/10/2019</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143264942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144521828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque Solar Avilés</t>
+          <t>Nueva Central Solar Fotovoltaica San Ramiro</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Solar TI Seis SpA.</t>
+          <t>PELEQUEN SUR SPA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>12000</v>
+        <v>10360</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>19/02/2019</t>
+          <t>20/05/2019</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142554764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143264942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Parque Solar Avilés</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,20 +1250,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Solar TI Seis SpA.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>19/02/2019</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142554764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,30 +1288,30 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Santa Rosa</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>GR CHAQUIHUE SpA</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>13/07/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131503598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Lo Aguirre - Alto Melipilla y Alto Melipilla - Rapel</t>
+          <t>Planta Fotovoltaica Santa Rosa</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,20 +1346,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ELETRANS II S.A.</t>
+          <t>GR CHAQUIHUE SpA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>77000</v>
+        <v>18000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>08/06/2016</t>
+          <t>13/07/2016</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131447464&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131503598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Santa Rosa</t>
+          <t>Línea de Transmisión Lo Aguirre - Alto Melipilla y Alto Melipilla - Rapel</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>GR CHAQUIHUE SpA</t>
+          <t>ELETRANS II S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>18000</v>
+        <v>77000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>18/02/2016</t>
+          <t>08/06/2016</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131159159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131447464&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,12 +1432,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Eclipse</t>
+          <t>Planta Fotovoltaica Santa Rosa</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Eclipse Solar SPA</t>
+          <t>GR CHAQUIHUE SpA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>20/01/2016</t>
+          <t>18/02/2016</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131097922&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131159159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,12 +1480,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Santa Rosa</t>
+          <t>Planta Fotovoltaica Eclipse</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>GR CHAQUIHUE SpA</t>
+          <t>Eclipse Solar SPA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>17/01/2016</t>
+          <t>20/01/2016</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131101440&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131097922&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>15/01/2016</t>
+          <t>17/01/2016</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131053422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131101440&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ampliación Plantel de Aves Ponedoras y Packing de Huevos San Ramiro</t>
+          <t>Planta Fotovoltaica Santa Rosa</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Lomas Altas</t>
+          <t>GR CHAQUIHUE SpA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>06/01/2016</t>
+          <t>15/01/2016</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131042934&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131053422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Eclipse</t>
+          <t>Ampliación Plantel de Aves Ponedoras y Packing de Huevos San Ramiro</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Eclipse Solar SPA</t>
+          <t>Sociedad Agrícola Lomas Altas</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>11/12/2015</t>
+          <t>06/01/2016</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130996712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131042934&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PARQUE SOLAR FOTOVOLTAICO EL ROBLE</t>
+          <t>Planta Fotovoltaica Eclipse</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>CHESTER SOLAR IV SpA</t>
+          <t>Eclipse Solar SPA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>19/11/2015</t>
+          <t>11/12/2015</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130922997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130996712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ampliación Planta Monte Olivo</t>
+          <t>PARQUE SOLAR FOTOVOLTAICO EL ROBLE</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Procesadora Monte Olivo S.A.</t>
+          <t>CHESTER SOLAR IV SpA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1100</v>
+        <v>15000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>22/09/2015</t>
+          <t>19/11/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130773520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130922997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,40 +1768,40 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PROYECTO "NUEVA LÍNEA 1x220 kV ALTO MELIPILLA - RAPEL Y NUEVA LÍNEA 2x220 kV LO AGUIRRE - ALTO MELIPILLA, CON UN CIRCUITO TENDIDO"</t>
+          <t>Ampliación Planta Monte Olivo</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ELETRANS II S.A.</t>
+          <t>Procesadora Monte Olivo S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>77000</v>
+        <v>1100</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>01/09/2015</t>
+          <t>22/09/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130730502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130773520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,40 +1816,40 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Santa Rosa</t>
+          <t>PROYECTO "NUEVA LÍNEA 1x220 kV ALTO MELIPILLA - RAPEL Y NUEVA LÍNEA 2x220 kV LO AGUIRRE - ALTO MELIPILLA, CON UN CIRCUITO TENDIDO"</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>GR Lingue SpA</t>
+          <t>ELETRANS II S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>18000</v>
+        <v>77000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>21/08/2015</t>
+          <t>01/09/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130708120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130730502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ampliación de Plantel de Aves Ponedoras y Packing de Huevos San Ramiro</t>
+          <t>Planta Fotovoltaica Santa Rosa</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Comercializadora y Productora Covalvi Ltda.</t>
+          <t>GR Lingue SpA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>21/07/2015</t>
+          <t>21/08/2015</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130613330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130708120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ampliación Plantel de Aves Ponedoras y Packing de Huevos San Ramiro</t>
+          <t>Ampliación de Plantel de Aves Ponedoras y Packing de Huevos San Ramiro</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>02/02/2015</t>
+          <t>21/07/2015</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130191727&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130613330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Ampliación Plantel de Aves Ponedoras y Packing de Huevos San Ramiro</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Comercializadora y Productora Covalvi Ltda.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>02/02/2015</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130191727&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Planta de Aceite de Oliva Agroreservas de Chile</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Agroreservas de Chile SpA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>20/10/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895745&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Planta de Aceite de oliva Agroreservas de Chile</t>
+          <t>Planta de Aceite de Oliva Agroreservas de Chile</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2223,17 +2223,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>25/09/2014</t>
+          <t>20/10/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129839584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895745&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,40 +2248,40 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Nueva Línea 1x220 kV Alto Melipilla - Rapel y Nueva Línea 2x220 kV Lo Aguirre - Alto Melipilla con un circuito tendido</t>
+          <t>Planta de Aceite de oliva Agroreservas de Chile</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ELETRANS II S.A.</t>
+          <t>Agroreservas de Chile SpA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>77000</v>
+        <v>10000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>05/09/2014</t>
+          <t>25/09/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129753064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129839584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,12 +2296,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>Nueva Línea 1x220 kV Alto Melipilla - Rapel y Nueva Línea 2x220 kV Lo Aguirre - Alto Melipilla con un circuito tendido</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>ELETRANS II S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>5000</v>
+        <v>77000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>05/09/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129753064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,11 +2407,11 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2420,12 +2420,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>5000</v>
+        <v>1200</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2050</v>
+        <v>5000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2559,17 +2559,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>250</v>
+        <v>2050</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2655,17 +2655,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Planta de Aceite de Oliva Agroindustrial El Olivar de Llancay Ltda.</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,20 +2786,20 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Agroindustrial El Olivar de Llancay Ltda.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>14/09/2012</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7342207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Planta de Aceite de Oliva Agroindustrial El Olivar de Llancay Ltda.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,20 +2834,20 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Agroindustrial El Olivar de Llancay Ltda.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>14/09/2012</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7342207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Extracción de áridos Lo Encañado EXP N° 047/2012</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONCESIONARIA LA FRUTA S.A.</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>13/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Extracción de áridos Lo Encañado EXP N° 047/2012</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD CONCESIONARIA LA FRUTA S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>800</v>
+        <v>4500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>13/04/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,30 +3122,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,12 +3304,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Concesión Ruta 66 - Camino de La Fruta</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Ruta de la Fruta S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>400500</v>
+        <v>100</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>24/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6244877&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,40 +3352,40 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Concesión Ruta 66 - Camino de La Fruta</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Sociedad Concesionaria Ruta de la Fruta S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>800</v>
+        <v>400500</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>24/11/2011</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6244877&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>09/11/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,20 +3458,20 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>09/11/2011</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Quincanque</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Constructora Besalco Belfi Icafal S.A.</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>4500</v>
+        <v>200</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>19/08/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5919241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Regularización Tranques Poblete Nº1, Nº2 y Peumo Alto</t>
+          <t>Extracción de Áridos Quincanque</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Agricola El Porvenir S.A.</t>
+          <t>Constructora Besalco Belfi Icafal S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2400</v>
+        <v>4500</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>29/07/2011</t>
+          <t>19/08/2011</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5825180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5919241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>Regularización Tranques Poblete Nº1, Nº2 y Peumo Alto</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,20 +3602,20 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Agricola El Porvenir S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>12000</v>
+        <v>2400</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>29/07/2011</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5825180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>11/04/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5520949&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>11/04/2011</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5520949&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas." .</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>25/03/2011</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5470359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Plantel de Aves Patagua</t>
+          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas." .</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,30 +3794,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Agrícola Chorombo S.A.</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>8350</v>
+        <v>200</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>10/03/2011</t>
+          <t>25/03/2011</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5434881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5470359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
+          <t>Plantel de Aves Patagua</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,16 +3842,16 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>Agrícola Chorombo S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>200</v>
+        <v>8350</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5434881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas." .</t>
+          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>10/12/2010</t>
+          <t>10/03/2011</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5141765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas." .</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>06/10/2010</t>
+          <t>10/12/2010</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5141765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Concesion Ruta 66, El Manzano - Las Brisas de Santo Domingo</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>80000</v>
+        <v>230</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>28/09/2010</t>
+          <t>06/10/2010</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4968864&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>Concesion Ruta 66, El Manzano - Las Brisas de Santo Domingo</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>223</v>
+        <v>80000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>15/09/2010</t>
+          <t>28/09/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4935880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4968864&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>20</v>
+        <v>223</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>26/08/2010</t>
+          <t>15/09/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4935880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>26/08/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1000</v>
+        <v>1750</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>02/08/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Instalación de un Grupo de Generación de Energía Eléctrica en Alimentos Agrosuper Ltda, Planta de Alimentos Longovilo</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Agrícola Súper Limitada</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2075</v>
+        <v>1000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>15/07/2010</t>
+          <t>02/08/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4758289&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido desde los puertos de Valparaíso o San Antonio hasta la Mina Florida</t>
+          <t>Instalación de un Grupo de Generación de Energía Eléctrica en Alimentos Agrosuper Ltda, Planta de Alimentos Longovilo</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,20 +4274,20 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Agrícola Súper Limitada</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>20</v>
+        <v>2075</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>02/06/2010</t>
+          <t>15/07/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633544&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4758289&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Toxicas desde la II Region a VI Region</t>
+          <t>Transporte de Cianuro de Sodio Sólido desde los puertos de Valparaíso o San Antonio hasta la Mina Florida</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>25/05/2010</t>
+          <t>02/06/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633544&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Transporte Terrestre de Sustancias Toxicas desde la II Region a VI Region</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>4050</v>
+        <v>1</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>25/05/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4527,7 +4527,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>PROYECTO CONEXIÓN VIAL MELIPILLA CAMINO DE LA FRUTA (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,20 +4658,20 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Ruta G-60 S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>25700</v>
+        <v>350</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>29/10/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4145177&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>PROYECTO CONEXIÓN VIAL MELIPILLA CAMINO DE LA FRUTA (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,30 +4706,30 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Sociedad Concesionaria Ruta G-60 S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>22</v>
+        <v>25700</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>29/10/2009</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4145177&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Subestación y Tendido Eléctrico Sector Alhué (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,30 +4754,30 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Emelectric S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>3531</v>
+        <v>22</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>06/03/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3615321&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,36 +4792,40 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CONCESIÓN RUTA 66 CAMINO DE LA FRUTA</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr"/>
+          <t>Subestación y Tendido Eléctrico Sector Alhué (e-seia)</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Emelectric S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>300000</v>
+        <v>3531</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>13/02/2009</t>
+          <t>06/03/2009</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3565282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3615321&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4836,40 +4840,36 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>CONCESIÓN RUTA 66 CAMINO DE LA FRUTA</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>13/02/2009</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3565282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4907,17 +4907,17 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4942,30 +4942,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -5003,17 +5003,17 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5043,11 +5043,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5056,12 +5056,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5099,7 +5099,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5109,7 +5109,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5134,20 +5134,20 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5182,30 +5182,30 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5235,25 +5235,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5283,25 +5283,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1650</v>
+        <v>3408</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5326,30 +5326,30 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>160</v>
+        <v>1650</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Embalse de acumulación de aguas de riego Fundo Trinidad, sector Longovilo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5379,11 +5379,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>AGRICOLA LA TRINIDAD LIMITADA</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>680</v>
+        <v>160</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3056315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Embalse de acumulación de aguas de riego Fundo Trinidad, sector Longovilo (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5427,25 +5427,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>AGRICOLA LA TRINIDAD LIMITADA</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>160</v>
+        <v>680</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3056315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5470,20 +5470,20 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5493,7 +5493,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5523,15 +5523,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5571,25 +5571,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>500</v>
+        <v>1650</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5614,20 +5614,20 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5637,7 +5637,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5662,20 +5662,20 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5685,7 +5685,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Plantel de Aves de Postura El Mirador (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5710,20 +5710,20 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Agrícola Chorombo S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>5400</v>
+        <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>13/12/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2573765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Plantel de Aves de Postura El Mirador (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5763,25 +5763,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Agrícola Chorombo S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>234</v>
+        <v>5400</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>13/11/2007</t>
+          <t>13/12/2007</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2573765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5806,7 +5806,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5819,7 +5819,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>13/11/2007</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Hidrosulfuro de Sodio desde el Puerto de San Antonio a Rancagua (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5859,25 +5859,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>INMATEC LTDA</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>05/10/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2422586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Hidrosulfuro de Sodio desde el Puerto de San Antonio a Rancagua (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>INMATEC LTDA</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -5915,17 +5915,17 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>05/10/2007</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2422586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5955,25 +5955,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -6011,17 +6011,17 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6051,15 +6051,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN SISTEMA INTEGRADO DE TRATAMIENTO DE PURINES DE CERDO, SECTOR LA MANGA (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6094,30 +6094,30 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1730</v>
+        <v>300</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>29/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2230460&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Nueva Cancha de Compostaje La Manga (e-seia)</t>
+          <t>MODIFICACIÓN SISTEMA INTEGRADO DE TRATAMIENTO DE PURINES DE CERDO, SECTOR LA MANGA (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>372</v>
+        <v>1730</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>18/04/2007</t>
+          <t>29/06/2007</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2112233&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2230460&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6180,30 +6180,30 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Peraltamiento Embalse Carén</t>
+          <t>Nueva Cancha de Compostaje La Manga (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>492000</v>
+        <v>372</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>30/03/2007</t>
+          <t>18/04/2007</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2097590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2112233&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6228,12 +6228,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Peraltamiento Embalse Carén</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -6243,15 +6243,15 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>492000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>30/03/2007</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2097590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6291,25 +6291,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6339,15 +6339,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6382,16 +6382,16 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6430,30 +6430,30 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6491,17 +6491,17 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6531,25 +6531,25 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6579,25 +6579,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6627,15 +6627,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6645,7 +6645,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6675,15 +6675,15 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Red de Aducciones e Integración del Sistema de Tratamiento de Purines de Cerdos sector La Manga (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6718,30 +6718,30 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>830</v>
+        <v>250</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>17/07/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1571177&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Pocillas (e-seia)</t>
+          <t>Red de Aducciones e Integración del Sistema de Tratamiento de Purines de Cerdos sector La Manga (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,21 +6775,21 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>3000</v>
+        <v>830</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>07/06/2006</t>
+          <t>17/07/2006</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1483140&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1571177&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Pocillas (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6814,20 +6814,20 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>07/06/2006</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1483140&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6875,17 +6875,17 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Grupo de Reproductoras de Cerdos Nº 27, Planta de Lodos Activados y planta de Compostaje, Longovilo (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6910,30 +6910,30 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>9600</v>
+        <v>500</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>23/01/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1236837&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Grupo de Reproductoras de Cerdos Nº 27, Planta de Lodos Activados y planta de Compostaje, Longovilo (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6958,30 +6958,30 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>72</v>
+        <v>9600</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>23/01/2006</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1236837&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Mejoramiento de los Sistema de Tratamiento de Purines de Cerdo Grupos Nº 17, 18, 19, 20 y 21 (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7006,20 +7006,20 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>620</v>
+        <v>72</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>27/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7029,7 +7029,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1183364&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Mejoramiento de los Sistema de Tratamiento de Purines de Cerdo Grupos Nº 17, 18, 19, 20 y 21 (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7054,30 +7054,30 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>72</v>
+        <v>620</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>27/12/2005</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1183364&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Mejoramiento de los Sistemas de Tratamiento de Purines de Cerdos Grupos Nº 17, 18, 19, 20, y 21 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7102,30 +7102,30 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1300</v>
+        <v>72</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>02/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Proyecto Plantel de Aves Tancor (e-seia)</t>
+          <t>Mejoramiento de los Sistemas de Tratamiento de Purines de Cerdos Grupos Nº 17, 18, 19, 20, y 21 (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7155,25 +7155,25 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Agricola Ariztia Ltda</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>16200</v>
+        <v>1300</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>24/11/2005</t>
+          <t>02/12/2005</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1122161&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Plantel de Aves Tancor (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7198,20 +7198,20 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Agricola Ariztia Ltda</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>80</v>
+        <v>16200</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>24/11/2005</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7221,7 +7221,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1122161&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7251,15 +7251,15 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7269,7 +7269,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7299,11 +7299,11 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>MPRMS 73, Analisis Integrado Plan Intercomunal de Talagante-Melipilla, Buin - Paine MPRMS 73, Analisis Integrado Plan Intercomunal de (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7342,20 +7342,20 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Veronica Serrano madrid</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>27/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7365,7 +7365,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7380,7 +7380,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Aumento Potencia Subsistema Rapel (e-seia)</t>
+          <t>MPRMS 73, Analisis Integrado Plan Intercomunal de Talagante-Melipilla, Buin - Paine MPRMS 73, Analisis Integrado Plan Intercomunal de (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7390,20 +7390,20 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Veronica Serrano madrid</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>10400</v>
+        <v>0</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>13/06/2005</t>
+          <t>27/07/2005</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7413,7 +7413,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=892026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7443,7 +7443,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Melipilla, Colchagua y Maule S.A</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -7451,17 +7451,17 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>06/06/2005</t>
+          <t>13/06/2005</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=880050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=892026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Aumento Potencia Subsistema Rapel (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7491,25 +7491,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Empresa Eléctrica de Melipilla, Colchagua y Maule S.A</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>200</v>
+        <v>10400</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>06/06/2005</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=880050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Plantel de Aves Cabimbao (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7534,20 +7534,20 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Agrícola Chorombo S.A.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>3500</v>
+        <v>200</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>01/02/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7557,7 +7557,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=588442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7572,7 +7572,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Mejoramiento del sistema de Tratamiento de Purines de Cerdo Grupos Nº 17, 18 y 19, Sectors Santa Rosa (e-seia)</t>
+          <t>Plantel de Aves Cabimbao (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7587,25 +7587,25 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Agrícola Chorombo S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>465</v>
+        <v>3500</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>07/10/2004</t>
+          <t>01/02/2005</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=588442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7620,7 +7620,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Tratamiento de Purines de Cerdos Grupos Nº 20 y 21, sector Las Palmas (e-seia)</t>
+          <t>Mejoramiento del sistema de Tratamiento de Purines de Cerdo Grupos Nº 17, 18 y 19, Sectors Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,7 +7639,7 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472306&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Tratamiento en sector de Corneche y Dos Nuevos Planteles Destete-Venta de Cerdos (e-seia)</t>
+          <t>Mejoramiento del Sistema de Tratamiento de Purines de Cerdos Grupos Nº 20 y 21, sector Las Palmas (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,21 +7687,21 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>3500</v>
+        <v>464</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>04/10/2004</t>
+          <t>07/10/2004</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=468236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472306&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Nuevo Plantel El Manso y cambio Tecnológico Sistema de Tratamiento, sector Maitenlahue (e-seia)</t>
+          <t>Modificación del Sistema de Tratamiento en sector de Corneche y Dos Nuevos Planteles Destete-Venta de Cerdos (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7726,7 +7726,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -7735,11 +7735,11 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>3520</v>
+        <v>3500</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>09/09/2004</t>
+          <t>04/10/2004</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7749,7 +7749,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=446555&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=468236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE EFLUENTES INCUBADORA LAS ARAÑAS (e-seia)</t>
+          <t>Nuevo Plantel El Manso y cambio Tecnológico Sistema de Tratamiento, sector Maitenlahue (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7774,7 +7774,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -7783,11 +7783,11 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>3520</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>24/06/2004</t>
+          <t>09/09/2004</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7797,7 +7797,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=385993&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=446555&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento Aeróbico de Purines de Cerdo y Tres Nuevos Planteles Destete-Venta en sector La Manga (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE EFLUENTES INCUBADORA LAS ARAÑAS (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,11 +7831,11 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>9500</v>
+        <v>0</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>14/04/2004</t>
+          <t>24/06/2004</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7845,7 +7845,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=320199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=385993&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Planteles Destete-Venta de Cerdos Piedra del Jote y Piedra del Traro, La Manga (e-seia)</t>
+          <t>Sistema de Tratamiento Aeróbico de Purines de Cerdo y Tres Nuevos Planteles Destete-Venta en sector La Manga (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,21 +7879,21 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>5152</v>
+        <v>9500</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>01/10/2003</t>
+          <t>14/04/2004</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=164535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=320199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Modificación Laguna de Estabilización y Ampliación Planteles, Sector Maitenlahue (e-seia)</t>
+          <t>Planteles Destete-Venta de Cerdos Piedra del Jote y Piedra del Traro, La Manga (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7918,7 +7918,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -7927,21 +7927,21 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>3900</v>
+        <v>5152</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>30/09/2003</t>
+          <t>01/10/2003</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=163397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=164535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de San Pedro (e-seia)</t>
+          <t>Modificación Laguna de Estabilización y Ampliación Planteles, Sector Maitenlahue (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7966,30 +7966,30 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Florentino Del Carmen Flores Armijo</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>22/05/2003</t>
+          <t>30/09/2003</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=83841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=163397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Plan Regulador Comunal de San Pedro (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8014,30 +8014,30 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Florentino Del Carmen Flores Armijo</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>23/01/2003</t>
+          <t>22/05/2003</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=83841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,30 +8052,30 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>23/12/2002</t>
+          <t>23/01/2003</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8085,7 +8085,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8100,30 +8100,30 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Estación de Servicio NTI San Pedro (e-seia)</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energía Enex S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>26/07/2002</t>
+          <t>23/12/2002</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=16963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Planta de Alimentos Longovilo III etapa</t>
+          <t>Estación de Servicio NTI San Pedro (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8158,20 +8158,20 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Empresa Nacional de Energía Enex S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>16000</v>
+        <v>560</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>04/04/2002</t>
+          <t>26/07/2002</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8181,7 +8181,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=16963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Modificación Sector de Engorda a Destete-Venta Plantel de Cerdos El Milagro La Manga</t>
+          <t>Planta de Alimentos Longovilo III etapa</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,11 +8215,11 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>970</v>
+        <v>16000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>23/11/2001</t>
+          <t>04/04/2002</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8229,7 +8229,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Broiler El Diputado Corneche</t>
+          <t>Modificación Sector de Engorda a Destete-Venta Plantel de Cerdos El Milagro La Manga</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>190</v>
+        <v>970</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>06/08/2001</t>
+          <t>23/11/2001</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8277,7 +8277,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4208&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Grupo de Engorda Broiler La Liguana Corneche</t>
+          <t>Grupo de Engorda de Broiler El Diputado Corneche</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,7 +8311,7 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>1930</v>
+        <v>190</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4208&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Línea de Subtransmisión Eléctrica de 66 kV y Subestación La Manga</t>
+          <t>Grupo de Engorda Broiler La Liguana Corneche</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8355,15 +8355,15 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>920</v>
+        <v>1930</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>03/08/2001</t>
+          <t>06/08/2001</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8373,7 +8373,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Sectores de Destete-Venta de Cerdos El Mormón y El Cura Corneche</t>
+          <t>Línea de Subtransmisión Eléctrica de 66 kV y Subestación La Manga</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8403,15 +8403,15 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>3010</v>
+        <v>920</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>11/07/2001</t>
+          <t>03/08/2001</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4423&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8436,30 +8436,30 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Sectores de Destete-Venta de Cerdos El Mormón y El Cura Corneche</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>1230</v>
+        <v>3010</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>11/07/2001</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8469,7 +8469,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8484,30 +8484,30 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Modificación Sector de Engorda a Destete-Venta Plantel de Cerdos El Tótem Corneche</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>950</v>
+        <v>1230</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>30/03/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Modificación Sector de Engorda a Destete - Venta Plateles de Cerdos La Manga 1 y 2 (El Alcalde y Consejales) La Manga</t>
+          <t>Modificación Sector de Engorda a Destete-Venta Plantel de Cerdos El Tótem Corneche</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,7 +8551,7 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>2000</v>
+        <v>950</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Modificación Sector de Engorda a Destete - Venta Plantel de Cerdos La Noria</t>
+          <t>Modificación Sector de Engorda a Destete - Venta Plateles de Cerdos La Manga 1 y 2 (El Alcalde y Consejales) La Manga</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,7 +8599,7 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>860</v>
+        <v>2000</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3805&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Modificación Sector de Engorda a Destete - Venta Plantel de Cerdos Corneche Corneche.</t>
+          <t>Modificación Sector de Engorda a Destete - Venta Plantel de Cerdos La Noria</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>800</v>
+        <v>860</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>26/01/2001</t>
+          <t>30/03/2001</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3805&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Modificación Sector de Engorda a Destete - Venta Plantel de Cerdos Elhue Corneche</t>
+          <t>Modificación Sector de Engorda a Destete - Venta Plantel de Cerdos Corneche Corneche.</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8709,7 +8709,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Línea de Subtransmisión Eléctrica de 66 kV y Subestación Santa Rosa</t>
+          <t>Modificación Sector de Engorda a Destete - Venta Plantel de Cerdos Elhue Corneche</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8739,15 +8739,15 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>11/01/2001</t>
+          <t>26/01/2001</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3526&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Sector de Engorda Don Sata Localidad de Corneche</t>
+          <t>Línea de Subtransmisión Eléctrica de 66 kV y Subestación Santa Rosa</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8787,15 +8787,15 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1900</v>
+        <v>1000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>31/08/2000</t>
+          <t>11/01/2001</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3526&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Sector de Engorda de Cerdos Don Mata Corneche</t>
+          <t>Sector de Engorda Don Sata Localidad de Corneche</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8853,7 +8853,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Sectores de Engorda de Cerdos Pocillas Nº1 y Nº2</t>
+          <t>Sector de Engorda de Cerdos Don Mata Corneche</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>3800</v>
+        <v>1900</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>28/08/2000</t>
+          <t>31/08/2000</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8916,30 +8916,30 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Sectores de Engorda de Cerdos Pocillas Nº1 y Nº2</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>24/07/2000</t>
+          <t>28/08/2000</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8949,7 +8949,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8964,30 +8964,30 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler Las Cornisas</t>
+          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>2370</v>
+        <v>3500</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>31/05/2000</t>
+          <t>24/07/2000</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -8997,7 +8997,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2883&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler</t>
+          <t>Grupo de Engorda de Pollos Broiler Las Cornisas</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,7 +9031,7 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1930</v>
+        <v>2370</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2883&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler Demetrío.</t>
+          <t>Grupo de Engorda de Pollos Broiler</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,7 +9079,7 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>2370</v>
+        <v>1930</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2894&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler La Fiera</t>
+          <t>Grupo de Engorda de Pollos Broiler Demetrío.</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2894&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Almacenamiento Mezcla Transvase y Transporte de Sustancias Agroquímicas para la Fumigación de Suelos en la Comuna de Rengo VI Región</t>
+          <t>Grupo de Engorda de Pollos Broiler La Fiera</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9166,20 +9166,20 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>700</v>
+        <v>2370</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>30/05/2000</t>
+          <t>31/05/2000</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Sector de Engorda de Cerdos Divisadero 1 y 2</t>
+          <t>Almacenamiento Mezcla Transvase y Transporte de Sustancias Agroquímicas para la Fumigación de Suelos en la Comuna de Rengo VI Región</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9214,20 +9214,20 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>960</v>
+        <v>700</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>24/12/1999</t>
+          <t>30/05/2000</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9237,7 +9237,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2562&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Tranque Los Culenes Fundo Rinconada de Longovilo</t>
+          <t>Sector de Engorda de Cerdos Divisadero 1 y 2</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9267,15 +9267,15 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola La Rinconada de Longovilo Ltda.</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>380</v>
+        <v>960</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>16/12/1999</t>
+          <t>24/12/1999</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2519&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2562&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Mejoramiento de Servicio de Agua Potable Rural San Pedro - El Yali Comuna de San Pedro</t>
+          <t>Tranque Los Culenes Fundo Rinconada de Longovilo</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9315,15 +9315,15 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Sociedad Agrícola La Rinconada de Longovilo Ltda.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>160</v>
+        <v>380</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>04/11/1999</t>
+          <t>16/12/1999</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2519&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Bodega de Vinos Lo Miranda</t>
+          <t>Mejoramiento de Servicio de Agua Potable Rural San Pedro - El Yali Comuna de San Pedro</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9363,15 +9363,15 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Viña Lo Miranda Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>37000</v>
+        <v>160</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>04/08/1999</t>
+          <t>04/11/1999</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Bodega de Vinos Lo Miranda</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9406,20 +9406,20 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Viña Lo Miranda Ltda.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>2500</v>
+        <v>37000</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>04/08/1999</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9429,7 +9429,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Laguna de Estabilización Sector Maitenlahue</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9459,15 +9459,15 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>11/08/1998</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9477,7 +9477,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Cerdos La Noria</t>
+          <t>Laguna de Estabilización Sector Maitenlahue</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9502,7 +9502,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -9511,11 +9511,11 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>1810</v>
+        <v>210</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>10/06/1998</t>
+          <t>11/08/1998</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9525,7 +9525,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Cerdos Las Brisas y Castrol</t>
+          <t>Grupo de Engorda de Cerdos La Noria</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,11 +9559,11 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>3000</v>
+        <v>1810</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>12/05/1998</t>
+          <t>10/06/1998</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9573,7 +9573,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Cerdos Elhué</t>
+          <t>Grupo de Engorda de Cerdos Las Brisas y Castrol</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,11 +9607,11 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>1810</v>
+        <v>3000</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>13/04/1998</t>
+          <t>12/05/1998</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9621,7 +9621,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta Compartida</t>
+          <t>Grupo de Engorda de Cerdos Elhué</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9646,20 +9646,20 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>11000</v>
+        <v>1810</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>25/03/1998</t>
+          <t>13/04/1998</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9669,7 +9669,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta Única</t>
+          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta Compartida</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9717,7 +9717,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=879&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Grupo Nº22 Sector Longovilo</t>
+          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta Única</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9742,20 +9742,20 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>7260</v>
+        <v>11000</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>08/03/1998</t>
+          <t>25/03/1998</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9765,7 +9765,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=879&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Actualización Sistema de Alcantarillado de San Pedro</t>
+          <t>Grupo Nº22 Sector Longovilo</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9795,15 +9795,15 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Pedro</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>400</v>
+        <v>7260</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>05/03/1998</t>
+          <t>08/03/1998</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=843&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Plantel Porcino</t>
+          <t>Actualización Sistema de Alcantarillado de San Pedro</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,15 +9843,15 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Agrícola El Monte S.A</t>
+          <t>Ilustre Municipalidad de San Pedro</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>9590</v>
+        <v>400</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>04/03/1998</t>
+          <t>05/03/1998</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=843&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Grupos de Engorda El Milagro</t>
+          <t>Plantel Porcino</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9891,15 +9891,15 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Agrícola El Monte S.A</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>1000</v>
+        <v>9590</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>28/01/1998</t>
+          <t>04/03/1998</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9909,7 +9909,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Grupos de Engorda La Manga I y II</t>
+          <t>Grupos de Engorda El Milagro</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9957,7 +9957,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Embalse de Temporada para Riego</t>
+          <t>Grupos de Engorda La Manga I y II</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9987,15 +9987,15 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Sociedad Agricola Las Palmas de Santa Rosa</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>12/12/1997</t>
+          <t>28/01/1998</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10005,7 +10005,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1059&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Alimentos Nº2</t>
+          <t>Embalse de Temporada para Riego</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10035,15 +10035,15 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Sociedad Agricola Las Palmas de Santa Rosa</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>12600</v>
+        <v>4000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>09/12/1997</t>
+          <t>12/12/1997</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10053,7 +10053,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=826&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1059&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Base de Operaciones Demarco S.A. Boca Sur San Pedro</t>
+          <t>Ampliación Fábrica de Alimentos Nº2</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10078,20 +10078,20 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Demarco S.A. y Kenbourne Ingenería Ambiental S.A. (KIASA)</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>80</v>
+        <v>12600</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>26/11/1997</t>
+          <t>09/12/1997</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10101,7 +10101,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=826&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Plantel de Porcinos Grupo de Reproductores de Cerdos Nº 20 y 21</t>
+          <t>Base de Operaciones Demarco S.A. Boca Sur San Pedro</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10126,20 +10126,20 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Demarco S.A. y Kenbourne Ingenería Ambiental S.A. (KIASA)</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>14000</v>
+        <v>80</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>16/09/1997</t>
+          <t>26/11/1997</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10149,7 +10149,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,43 +10164,91 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
+          <t>Plantel de Porcinos Grupo de Reproductores de Cerdos Nº 20 y 21</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Agrícola Super Limitada</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>14000</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>16/09/1997</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=310&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>San Pedro</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
           <t>Distribución Gas Natural en Intercomuna Concepción</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
+      <c r="C206" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr">
+      <c r="D206" t="inlineStr">
         <is>
           <t>Octava</t>
         </is>
       </c>
-      <c r="E205" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>GASCO Concepción S.A.</t>
         </is>
       </c>
-      <c r="F205" t="n">
+      <c r="F206" t="n">
         <v>13650</v>
       </c>
-      <c r="G205" t="inlineStr">
+      <c r="G206" t="inlineStr">
         <is>
           <t>05/05/1997</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
+      <c r="H206" t="inlineStr">
         <is>
           <t>Desistido</t>
         </is>
       </c>
-      <c r="I205" t="inlineStr">
+      <c r="I206" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1006&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J205" t="inlineStr">
+      <c r="J206" t="inlineStr">
         <is>
           <t>San Pedro</t>
         </is>

--- a/data/San Pedro.xlsx
+++ b/data/San Pedro.xlsx
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Plantel de Aves Patagua</t>
+          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,16 +3842,16 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Agrícola Chorombo S.A.</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>8350</v>
+        <v>200</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5434881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
+          <t>Plantel de Aves Patagua</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,16 +3890,16 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>Agrícola Chorombo S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>200</v>
+        <v>8350</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5434881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5043,11 +5043,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5056,12 +5056,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5091,11 +5091,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5104,12 +5104,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Embalse de acumulación de aguas de riego Fundo Trinidad, sector Longovilo (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5379,11 +5379,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>AGRICOLA LA TRINIDAD LIMITADA</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>160</v>
+        <v>680</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3056315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Embalse de acumulación de aguas de riego Fundo Trinidad, sector Longovilo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5427,11 +5427,11 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>AGRICOLA LA TRINIDAD LIMITADA</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>680</v>
+        <v>160</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3056315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler Las Cornisas</t>
+          <t>Grupo de Engorda de Pollos Broiler Demetrío.</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9045,7 +9045,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2883&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2894&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler</t>
+          <t>Grupo de Engorda de Pollos Broiler La Fiera</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,7 +9079,7 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1930</v>
+        <v>2370</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler Demetrío.</t>
+          <t>Grupo de Engorda de Pollos Broiler Las Cornisas</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2894&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2883&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler La Fiera</t>
+          <t>Grupo de Engorda de Pollos Broiler</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,7 +9175,7 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>2370</v>
+        <v>1930</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">

--- a/data/San Pedro.xlsx
+++ b/data/San Pedro.xlsx
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
+          <t>Plantel de Aves Patagua</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,16 +3842,16 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>Agrícola Chorombo S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>200</v>
+        <v>8350</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5434881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Plantel de Aves Patagua</t>
+          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,16 +3890,16 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Agrícola Chorombo S.A.</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>8350</v>
+        <v>200</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5434881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5043,11 +5043,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5056,12 +5056,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5091,11 +5091,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5104,12 +5104,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Embalse de acumulación de aguas de riego Fundo Trinidad, sector Longovilo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5379,11 +5379,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>AGRICOLA LA TRINIDAD LIMITADA</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>680</v>
+        <v>160</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3056315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Embalse de acumulación de aguas de riego Fundo Trinidad, sector Longovilo (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5427,11 +5427,11 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>AGRICOLA LA TRINIDAD LIMITADA</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>160</v>
+        <v>680</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3056315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler Demetrío.</t>
+          <t>Grupo de Engorda de Pollos Broiler Las Cornisas</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9045,7 +9045,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2894&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2883&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler La Fiera</t>
+          <t>Grupo de Engorda de Pollos Broiler</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,7 +9079,7 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>2370</v>
+        <v>1930</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler Las Cornisas</t>
+          <t>Grupo de Engorda de Pollos Broiler Demetrío.</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2883&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2894&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler</t>
+          <t>Grupo de Engorda de Pollos Broiler La Fiera</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,7 +9175,7 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1930</v>
+        <v>2370</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">

--- a/data/San Pedro.xlsx
+++ b/data/San Pedro.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/08/2022</t>
+          <t>24/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Pedro.xlsx
+++ b/data/San Pedro.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J206"/>
+  <dimension ref="A1:J207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/08/2022</t>
+          <t>31/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156750797&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156868596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modificación Planta de aceite de oliva AgroReservas de Chile</t>
+          <t>TRANQUE LA CABAÑA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Agroreservas de Chile SpA</t>
+          <t>Sociedad Agrícola El Porvenir S. A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>440</v>
+        <v>356</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20/05/2021</t>
+          <t>24/08/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148725281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156750797&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Proyecto Parque Fotovoltaico Llancay</t>
+          <t>Modificación Planta de aceite de oliva AgroReservas de Chile</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Solar TI Treinta y Cuatro SpA</t>
+          <t>Agroreservas de Chile SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>12000</v>
+        <v>440</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>21/04/2021</t>
+          <t>20/05/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151513067&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148725281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lirio Solar</t>
+          <t>Proyecto Parque Fotovoltaico Llancay</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CVE Proyecto Veinticinco SpA</t>
+          <t>Solar TI Treinta y Cuatro SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>19/02/2021</t>
+          <t>21/04/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150831983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151513067&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Andino Las Pataguas</t>
+          <t>Lirio Solar</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>PARQUE FOTOVOLTAICO ANDINO LAS PATAGUAS SPA</t>
+          <t>CVE Proyecto Veinticinco SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>150000</v>
+        <v>9000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>21/01/2021</t>
+          <t>19/02/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149726158&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150831983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Empréstito Las Arañas</t>
+          <t>Parque Fotovoltaico Andino Las Pataguas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SACYR CHILE S.A.</t>
+          <t>PARQUE FOTOVOLTAICO ANDINO LAS PATAGUAS SPA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>30000</v>
+        <v>150000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>19/01/2021</t>
+          <t>21/01/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149636084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149726158&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parque Solar Villa</t>
+          <t>Empréstito Las Arañas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Solar TI Veinticuatro SpA</t>
+          <t>SACYR CHILE S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6565</v>
+        <v>30000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/09/2020</t>
+          <t>19/01/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148373183&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149636084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Actualizaciones de Ingeniería y Construcción Obras 7ª, 8ª y 9ª Etapas Peraltamiento Embalse Carén</t>
+          <t>Parque Solar Villa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,20 +770,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Solar TI Veinticuatro SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>473000</v>
+        <v>6565</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>07/08/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147557521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148373183&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Chagual</t>
+          <t>Actualizaciones de Ingeniería y Construcción Obras 7ª, 8ª y 9ª Etapas Peraltamiento Embalse Carén</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,20 +818,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CVE Proyecto Treinta SpA</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>11200</v>
+        <v>473000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23/06/2020</t>
+          <t>07/08/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146943410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147557521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Savona Solar</t>
+          <t>Parque Fotovoltaico Chagual</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Savona Solar SpA</t>
+          <t>CVE Proyecto Treinta SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>7000</v>
+        <v>11200</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>19/05/2020</t>
+          <t>23/06/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146636355&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146943410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -927,17 +927,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>18/04/2020</t>
+          <t>19/05/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146362277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146636355&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nuevo Campamento Carén - División El Teniente</t>
+          <t>Planta Fotovoltaica Savona Solar</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Savona Solar SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>07/04/2020</t>
+          <t>18/04/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146082969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146362277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Proyecto Embalse DIA Las Arañas</t>
+          <t>Nuevo Campamento Carén - División El Teniente</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,30 +1010,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Agrícola Las Arañas S.A</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2250</v>
+        <v>25000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20/02/2020</t>
+          <t>07/04/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145693170&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146082969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Proyecto Embalse DIA Las Arañas</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Agrícola Las Arañas S.A</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>25000</v>
+        <v>2250</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>20/02/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145693170&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Membrillo</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,20 +1106,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Membrillo Solar SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>7100</v>
+        <v>25000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145253552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Palermo Solar SpA</t>
+          <t>Parque Fotovoltaico El Membrillo</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>GPG Generación Distribuida SpA</t>
+          <t>Membrillo Solar SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>14000</v>
+        <v>7100</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>29/10/2019</t>
+          <t>20/12/2019</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144521828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145253552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica San Ramiro</t>
+          <t>Planta Fotovoltaica Palermo Solar SpA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>PELEQUEN SUR SPA</t>
+          <t>GPG Generación Distribuida SpA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>10360</v>
+        <v>14000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>20/05/2019</t>
+          <t>29/10/2019</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143264942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144521828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parque Solar Avilés</t>
+          <t>Nueva Central Solar Fotovoltaica San Ramiro</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Solar TI Seis SpA.</t>
+          <t>PELEQUEN SUR SPA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>12000</v>
+        <v>10360</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>19/02/2019</t>
+          <t>20/05/2019</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142554764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143264942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Parque Solar Avilés</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,20 +1298,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Solar TI Seis SpA.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>19/02/2019</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142554764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,30 +1336,30 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Santa Rosa</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>GR CHAQUIHUE SpA</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>13/07/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131503598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Lo Aguirre - Alto Melipilla y Alto Melipilla - Rapel</t>
+          <t>Planta Fotovoltaica Santa Rosa</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,20 +1394,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ELETRANS II S.A.</t>
+          <t>GR CHAQUIHUE SpA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>77000</v>
+        <v>18000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>08/06/2016</t>
+          <t>13/07/2016</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131447464&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131503598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Santa Rosa</t>
+          <t>Línea de Transmisión Lo Aguirre - Alto Melipilla y Alto Melipilla - Rapel</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>GR CHAQUIHUE SpA</t>
+          <t>ELETRANS II S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>18000</v>
+        <v>77000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>18/02/2016</t>
+          <t>08/06/2016</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131159159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131447464&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,12 +1480,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Eclipse</t>
+          <t>Planta Fotovoltaica Santa Rosa</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Eclipse Solar SPA</t>
+          <t>GR CHAQUIHUE SpA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20/01/2016</t>
+          <t>18/02/2016</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131097922&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131159159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,12 +1528,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Santa Rosa</t>
+          <t>Planta Fotovoltaica Eclipse</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>GR CHAQUIHUE SpA</t>
+          <t>Eclipse Solar SPA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>17/01/2016</t>
+          <t>20/01/2016</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131101440&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131097922&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>15/01/2016</t>
+          <t>17/01/2016</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131053422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131101440&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,12 +1624,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ampliación Plantel de Aves Ponedoras y Packing de Huevos San Ramiro</t>
+          <t>Planta Fotovoltaica Santa Rosa</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Lomas Altas</t>
+          <t>GR CHAQUIHUE SpA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>06/01/2016</t>
+          <t>15/01/2016</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131042934&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131053422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Eclipse</t>
+          <t>Ampliación Plantel de Aves Ponedoras y Packing de Huevos San Ramiro</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Eclipse Solar SPA</t>
+          <t>Sociedad Agrícola Lomas Altas</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>11/12/2015</t>
+          <t>06/01/2016</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130996712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131042934&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PARQUE SOLAR FOTOVOLTAICO EL ROBLE</t>
+          <t>Planta Fotovoltaica Eclipse</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>CHESTER SOLAR IV SpA</t>
+          <t>Eclipse Solar SPA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>19/11/2015</t>
+          <t>11/12/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130922997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130996712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ampliación Planta Monte Olivo</t>
+          <t>PARQUE SOLAR FOTOVOLTAICO EL ROBLE</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Procesadora Monte Olivo S.A.</t>
+          <t>CHESTER SOLAR IV SpA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1100</v>
+        <v>15000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>22/09/2015</t>
+          <t>19/11/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130773520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130922997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,40 +1816,40 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PROYECTO "NUEVA LÍNEA 1x220 kV ALTO MELIPILLA - RAPEL Y NUEVA LÍNEA 2x220 kV LO AGUIRRE - ALTO MELIPILLA, CON UN CIRCUITO TENDIDO"</t>
+          <t>Ampliación Planta Monte Olivo</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ELETRANS II S.A.</t>
+          <t>Procesadora Monte Olivo S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>77000</v>
+        <v>1100</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>01/09/2015</t>
+          <t>22/09/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130730502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130773520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,40 +1864,40 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Santa Rosa</t>
+          <t>PROYECTO "NUEVA LÍNEA 1x220 kV ALTO MELIPILLA - RAPEL Y NUEVA LÍNEA 2x220 kV LO AGUIRRE - ALTO MELIPILLA, CON UN CIRCUITO TENDIDO"</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>GR Lingue SpA</t>
+          <t>ELETRANS II S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>18000</v>
+        <v>77000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>21/08/2015</t>
+          <t>01/09/2015</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130708120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130730502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ampliación de Plantel de Aves Ponedoras y Packing de Huevos San Ramiro</t>
+          <t>Planta Fotovoltaica Santa Rosa</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Comercializadora y Productora Covalvi Ltda.</t>
+          <t>GR Lingue SpA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>21/07/2015</t>
+          <t>21/08/2015</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130613330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130708120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ampliación Plantel de Aves Ponedoras y Packing de Huevos San Ramiro</t>
+          <t>Ampliación de Plantel de Aves Ponedoras y Packing de Huevos San Ramiro</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>02/02/2015</t>
+          <t>21/07/2015</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130191727&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130613330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Ampliación Plantel de Aves Ponedoras y Packing de Huevos San Ramiro</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Comercializadora y Productora Covalvi Ltda.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>02/02/2015</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130191727&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Planta de Aceite de Oliva Agroreservas de Chile</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Agroreservas de Chile SpA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>20/10/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895745&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Planta de Aceite de oliva Agroreservas de Chile</t>
+          <t>Planta de Aceite de Oliva Agroreservas de Chile</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2271,17 +2271,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>25/09/2014</t>
+          <t>20/10/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129839584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895745&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,40 +2296,40 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Nueva Línea 1x220 kV Alto Melipilla - Rapel y Nueva Línea 2x220 kV Lo Aguirre - Alto Melipilla con un circuito tendido</t>
+          <t>Planta de Aceite de oliva Agroreservas de Chile</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ELETRANS II S.A.</t>
+          <t>Agroreservas de Chile SpA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>77000</v>
+        <v>10000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>05/09/2014</t>
+          <t>25/09/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129753064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129839584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,12 +2344,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>Nueva Línea 1x220 kV Alto Melipilla - Rapel y Nueva Línea 2x220 kV Lo Aguirre - Alto Melipilla con un circuito tendido</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>ELETRANS II S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5000</v>
+        <v>77000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>05/09/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129753064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2468,12 +2468,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>5000</v>
+        <v>1200</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2050</v>
+        <v>5000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2607,17 +2607,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>250</v>
+        <v>2050</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2703,17 +2703,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Planta de Aceite de Oliva Agroindustrial El Olivar de Llancay Ltda.</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,20 +2834,20 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Agroindustrial El Olivar de Llancay Ltda.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>14/09/2012</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7342207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Planta de Aceite de Oliva Agroindustrial El Olivar de Llancay Ltda.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,20 +2882,20 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Agroindustrial El Olivar de Llancay Ltda.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>14/09/2012</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7342207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Extracción de áridos Lo Encañado EXP N° 047/2012</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONCESIONARIA LA FRUTA S.A.</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>13/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Extracción de áridos Lo Encañado EXP N° 047/2012</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD CONCESIONARIA LA FRUTA S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>800</v>
+        <v>4500</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>13/04/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,30 +3170,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3231,7 +3231,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,12 +3352,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Concesión Ruta 66 - Camino de La Fruta</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Ruta de la Fruta S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>400500</v>
+        <v>100</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>24/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6244877&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,40 +3400,40 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Concesión Ruta 66 - Camino de La Fruta</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Sociedad Concesionaria Ruta de la Fruta S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>800</v>
+        <v>400500</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>24/11/2011</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6244877&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>09/11/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,20 +3506,20 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>09/11/2011</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Quincanque</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Constructora Besalco Belfi Icafal S.A.</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>4500</v>
+        <v>200</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>19/08/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5919241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Regularización Tranques Poblete Nº1, Nº2 y Peumo Alto</t>
+          <t>Extracción de Áridos Quincanque</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Agricola El Porvenir S.A.</t>
+          <t>Constructora Besalco Belfi Icafal S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2400</v>
+        <v>4500</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>29/07/2011</t>
+          <t>19/08/2011</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5825180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5919241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>Regularización Tranques Poblete Nº1, Nº2 y Peumo Alto</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,20 +3650,20 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Agricola El Porvenir S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>12000</v>
+        <v>2400</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>29/07/2011</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5825180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>11/04/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5520949&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>11/04/2011</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5520949&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas." .</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>25/03/2011</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5470359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Plantel de Aves Patagua</t>
+          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas." .</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Agrícola Chorombo S.A.</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>8350</v>
+        <v>200</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>10/03/2011</t>
+          <t>25/03/2011</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5434881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5470359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
+          <t>Plantel de Aves Patagua</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,16 +3890,16 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>Agrícola Chorombo S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>200</v>
+        <v>8350</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5434881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas." .</t>
+          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>10/12/2010</t>
+          <t>10/03/2011</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5141765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas." .</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>06/10/2010</t>
+          <t>10/12/2010</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5141765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Concesion Ruta 66, El Manzano - Las Brisas de Santo Domingo</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>80000</v>
+        <v>230</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>28/09/2010</t>
+          <t>06/10/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4968864&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>Concesion Ruta 66, El Manzano - Las Brisas de Santo Domingo</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>223</v>
+        <v>80000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>15/09/2010</t>
+          <t>28/09/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4935880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4968864&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>20</v>
+        <v>223</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>26/08/2010</t>
+          <t>15/09/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4935880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>26/08/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1000</v>
+        <v>1750</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>02/08/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Instalación de un Grupo de Generación de Energía Eléctrica en Alimentos Agrosuper Ltda, Planta de Alimentos Longovilo</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Agrícola Súper Limitada</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2075</v>
+        <v>1000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>15/07/2010</t>
+          <t>02/08/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4758289&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido desde los puertos de Valparaíso o San Antonio hasta la Mina Florida</t>
+          <t>Instalación de un Grupo de Generación de Energía Eléctrica en Alimentos Agrosuper Ltda, Planta de Alimentos Longovilo</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,20 +4322,20 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Agrícola Súper Limitada</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>20</v>
+        <v>2075</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>02/06/2010</t>
+          <t>15/07/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633544&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4758289&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Toxicas desde la II Region a VI Region</t>
+          <t>Transporte de Cianuro de Sodio Sólido desde los puertos de Valparaíso o San Antonio hasta la Mina Florida</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>25/05/2010</t>
+          <t>02/06/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633544&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Transporte Terrestre de Sustancias Toxicas desde la II Region a VI Region</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>4050</v>
+        <v>1</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>25/05/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,25 +4663,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>PROYECTO CONEXIÓN VIAL MELIPILLA CAMINO DE LA FRUTA (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,20 +4706,20 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Ruta G-60 S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>25700</v>
+        <v>350</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>29/10/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4145177&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>PROYECTO CONEXIÓN VIAL MELIPILLA CAMINO DE LA FRUTA (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,30 +4754,30 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Sociedad Concesionaria Ruta G-60 S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>22</v>
+        <v>25700</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>29/10/2009</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4145177&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Subestación y Tendido Eléctrico Sector Alhué (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,30 +4802,30 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Emelectric S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>3531</v>
+        <v>22</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>06/03/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3615321&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,36 +4840,40 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CONCESIÓN RUTA 66 CAMINO DE LA FRUTA</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr"/>
+          <t>Subestación y Tendido Eléctrico Sector Alhué (e-seia)</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Emelectric S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>300000</v>
+        <v>3531</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>13/02/2009</t>
+          <t>06/03/2009</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3565282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3615321&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4884,40 +4888,36 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>CONCESIÓN RUTA 66 CAMINO DE LA FRUTA</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>13/02/2009</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3565282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4955,17 +4955,17 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4990,30 +4990,30 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5051,17 +5051,17 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5091,11 +5091,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5104,12 +5104,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5147,7 +5147,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5182,20 +5182,20 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5230,30 +5230,30 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5283,25 +5283,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5331,25 +5331,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1650</v>
+        <v>3408</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5374,30 +5374,30 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>160</v>
+        <v>1650</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Embalse de acumulación de aguas de riego Fundo Trinidad, sector Longovilo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5427,11 +5427,11 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>AGRICOLA LA TRINIDAD LIMITADA</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>680</v>
+        <v>160</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3056315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Embalse de acumulación de aguas de riego Fundo Trinidad, sector Longovilo (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5475,25 +5475,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>AGRICOLA LA TRINIDAD LIMITADA</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>160</v>
+        <v>680</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3056315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5518,20 +5518,20 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5571,15 +5571,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5619,25 +5619,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>500</v>
+        <v>1650</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5662,20 +5662,20 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5685,7 +5685,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5710,20 +5710,20 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Plantel de Aves de Postura El Mirador (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5758,20 +5758,20 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Agrícola Chorombo S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>5400</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>13/12/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2573765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Plantel de Aves de Postura El Mirador (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5811,25 +5811,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Agrícola Chorombo S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>234</v>
+        <v>5400</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>13/11/2007</t>
+          <t>13/12/2007</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2573765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5854,7 +5854,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5867,7 +5867,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>13/11/2007</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Hidrosulfuro de Sodio desde el Puerto de San Antonio a Rancagua (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5907,25 +5907,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>INMATEC LTDA</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>05/10/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2422586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Hidrosulfuro de Sodio desde el Puerto de San Antonio a Rancagua (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5955,7 +5955,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>INMATEC LTDA</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -5963,17 +5963,17 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>05/10/2007</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2422586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6003,25 +6003,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6059,17 +6059,17 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6099,15 +6099,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6117,7 +6117,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN SISTEMA INTEGRADO DE TRATAMIENTO DE PURINES DE CERDO, SECTOR LA MANGA (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6142,30 +6142,30 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1730</v>
+        <v>300</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>29/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2230460&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Nueva Cancha de Compostaje La Manga (e-seia)</t>
+          <t>MODIFICACIÓN SISTEMA INTEGRADO DE TRATAMIENTO DE PURINES DE CERDO, SECTOR LA MANGA (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>372</v>
+        <v>1730</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>18/04/2007</t>
+          <t>29/06/2007</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2112233&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2230460&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6228,30 +6228,30 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Peraltamiento Embalse Carén</t>
+          <t>Nueva Cancha de Compostaje La Manga (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>492000</v>
+        <v>372</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>30/03/2007</t>
+          <t>18/04/2007</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2097590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2112233&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6276,12 +6276,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Peraltamiento Embalse Carén</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -6291,15 +6291,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1</v>
+        <v>492000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>30/03/2007</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2097590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6339,25 +6339,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6387,15 +6387,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6430,16 +6430,16 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6478,30 +6478,30 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6539,17 +6539,17 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6579,25 +6579,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6627,25 +6627,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6675,15 +6675,15 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6723,15 +6723,15 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6741,7 +6741,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Red de Aducciones e Integración del Sistema de Tratamiento de Purines de Cerdos sector La Manga (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6766,30 +6766,30 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>830</v>
+        <v>250</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>17/07/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1571177&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Pocillas (e-seia)</t>
+          <t>Red de Aducciones e Integración del Sistema de Tratamiento de Purines de Cerdos sector La Manga (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,21 +6823,21 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>3000</v>
+        <v>830</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>07/06/2006</t>
+          <t>17/07/2006</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1483140&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1571177&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Pocillas (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6862,20 +6862,20 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>07/06/2006</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1483140&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6923,17 +6923,17 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Grupo de Reproductoras de Cerdos Nº 27, Planta de Lodos Activados y planta de Compostaje, Longovilo (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6958,30 +6958,30 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>9600</v>
+        <v>500</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>23/01/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1236837&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Grupo de Reproductoras de Cerdos Nº 27, Planta de Lodos Activados y planta de Compostaje, Longovilo (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7006,30 +7006,30 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>72</v>
+        <v>9600</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>23/01/2006</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1236837&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Mejoramiento de los Sistema de Tratamiento de Purines de Cerdo Grupos Nº 17, 18, 19, 20 y 21 (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7054,20 +7054,20 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>620</v>
+        <v>72</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>27/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7077,7 +7077,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1183364&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Mejoramiento de los Sistema de Tratamiento de Purines de Cerdo Grupos Nº 17, 18, 19, 20 y 21 (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7102,30 +7102,30 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>72</v>
+        <v>620</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>27/12/2005</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1183364&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Mejoramiento de los Sistemas de Tratamiento de Purines de Cerdos Grupos Nº 17, 18, 19, 20, y 21 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7150,30 +7150,30 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1300</v>
+        <v>72</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>02/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Proyecto Plantel de Aves Tancor (e-seia)</t>
+          <t>Mejoramiento de los Sistemas de Tratamiento de Purines de Cerdos Grupos Nº 17, 18, 19, 20, y 21 (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7203,25 +7203,25 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Agricola Ariztia Ltda</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>16200</v>
+        <v>1300</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>24/11/2005</t>
+          <t>02/12/2005</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1122161&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Plantel de Aves Tancor (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7246,20 +7246,20 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Agricola Ariztia Ltda</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>80</v>
+        <v>16200</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>24/11/2005</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7269,7 +7269,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1122161&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7299,15 +7299,15 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7317,7 +7317,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7347,11 +7347,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7365,7 +7365,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7380,7 +7380,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MPRMS 73, Analisis Integrado Plan Intercomunal de Talagante-Melipilla, Buin - Paine MPRMS 73, Analisis Integrado Plan Intercomunal de (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7390,20 +7390,20 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Veronica Serrano madrid</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>27/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7413,7 +7413,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7428,7 +7428,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Aumento Potencia Subsistema Rapel (e-seia)</t>
+          <t>MPRMS 73, Analisis Integrado Plan Intercomunal de Talagante-Melipilla, Buin - Paine MPRMS 73, Analisis Integrado Plan Intercomunal de (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7438,20 +7438,20 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Veronica Serrano madrid</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>10400</v>
+        <v>0</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>13/06/2005</t>
+          <t>27/07/2005</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7461,7 +7461,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=892026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Melipilla, Colchagua y Maule S.A</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
@@ -7499,17 +7499,17 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>06/06/2005</t>
+          <t>13/06/2005</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=880050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=892026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Aumento Potencia Subsistema Rapel (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7539,25 +7539,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Empresa Eléctrica de Melipilla, Colchagua y Maule S.A</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>200</v>
+        <v>10400</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>06/06/2005</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=880050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7572,7 +7572,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Plantel de Aves Cabimbao (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7582,20 +7582,20 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Agrícola Chorombo S.A.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>3500</v>
+        <v>200</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>01/02/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7605,7 +7605,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=588442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7620,7 +7620,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Mejoramiento del sistema de Tratamiento de Purines de Cerdo Grupos Nº 17, 18 y 19, Sectors Santa Rosa (e-seia)</t>
+          <t>Plantel de Aves Cabimbao (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7635,25 +7635,25 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Agrícola Chorombo S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>465</v>
+        <v>3500</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>07/10/2004</t>
+          <t>01/02/2005</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=588442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Tratamiento de Purines de Cerdos Grupos Nº 20 y 21, sector Las Palmas (e-seia)</t>
+          <t>Mejoramiento del sistema de Tratamiento de Purines de Cerdo Grupos Nº 17, 18 y 19, Sectors Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472306&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Tratamiento en sector de Corneche y Dos Nuevos Planteles Destete-Venta de Cerdos (e-seia)</t>
+          <t>Mejoramiento del Sistema de Tratamiento de Purines de Cerdos Grupos Nº 20 y 21, sector Las Palmas (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,21 +7735,21 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>3500</v>
+        <v>464</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>04/10/2004</t>
+          <t>07/10/2004</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=468236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472306&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Nuevo Plantel El Manso y cambio Tecnológico Sistema de Tratamiento, sector Maitenlahue (e-seia)</t>
+          <t>Modificación del Sistema de Tratamiento en sector de Corneche y Dos Nuevos Planteles Destete-Venta de Cerdos (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7774,7 +7774,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -7783,11 +7783,11 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>3520</v>
+        <v>3500</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>09/09/2004</t>
+          <t>04/10/2004</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7797,7 +7797,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=446555&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=468236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE EFLUENTES INCUBADORA LAS ARAÑAS (e-seia)</t>
+          <t>Nuevo Plantel El Manso y cambio Tecnológico Sistema de Tratamiento, sector Maitenlahue (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7822,7 +7822,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -7831,11 +7831,11 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>3520</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>24/06/2004</t>
+          <t>09/09/2004</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7845,7 +7845,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=385993&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=446555&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento Aeróbico de Purines de Cerdo y Tres Nuevos Planteles Destete-Venta en sector La Manga (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE EFLUENTES INCUBADORA LAS ARAÑAS (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,11 +7879,11 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>9500</v>
+        <v>0</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>14/04/2004</t>
+          <t>24/06/2004</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7893,7 +7893,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=320199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=385993&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Planteles Destete-Venta de Cerdos Piedra del Jote y Piedra del Traro, La Manga (e-seia)</t>
+          <t>Sistema de Tratamiento Aeróbico de Purines de Cerdo y Tres Nuevos Planteles Destete-Venta en sector La Manga (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,21 +7927,21 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>5152</v>
+        <v>9500</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>01/10/2003</t>
+          <t>14/04/2004</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=164535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=320199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Modificación Laguna de Estabilización y Ampliación Planteles, Sector Maitenlahue (e-seia)</t>
+          <t>Planteles Destete-Venta de Cerdos Piedra del Jote y Piedra del Traro, La Manga (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7966,7 +7966,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -7975,21 +7975,21 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>3900</v>
+        <v>5152</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>30/09/2003</t>
+          <t>01/10/2003</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=163397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=164535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de San Pedro (e-seia)</t>
+          <t>Modificación Laguna de Estabilización y Ampliación Planteles, Sector Maitenlahue (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8014,30 +8014,30 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Florentino Del Carmen Flores Armijo</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>22/05/2003</t>
+          <t>30/09/2003</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=83841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=163397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Plan Regulador Comunal de San Pedro (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8062,30 +8062,30 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Florentino Del Carmen Flores Armijo</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>23/01/2003</t>
+          <t>22/05/2003</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=83841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8100,30 +8100,30 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>23/12/2002</t>
+          <t>23/01/2003</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8148,30 +8148,30 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Estación de Servicio NTI San Pedro (e-seia)</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energía Enex S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>26/07/2002</t>
+          <t>23/12/2002</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8181,7 +8181,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=16963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Planta de Alimentos Longovilo III etapa</t>
+          <t>Estación de Servicio NTI San Pedro (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8206,20 +8206,20 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Empresa Nacional de Energía Enex S.A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>16000</v>
+        <v>560</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>04/04/2002</t>
+          <t>26/07/2002</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8229,7 +8229,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=16963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Modificación Sector de Engorda a Destete-Venta Plantel de Cerdos El Milagro La Manga</t>
+          <t>Planta de Alimentos Longovilo III etapa</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>970</v>
+        <v>16000</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>23/11/2001</t>
+          <t>04/04/2002</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8277,7 +8277,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Broiler El Diputado Corneche</t>
+          <t>Modificación Sector de Engorda a Destete-Venta Plantel de Cerdos El Milagro La Manga</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,11 +8311,11 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>190</v>
+        <v>970</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>06/08/2001</t>
+          <t>23/11/2001</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8325,7 +8325,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4208&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Grupo de Engorda Broiler La Liguana Corneche</t>
+          <t>Grupo de Engorda de Broiler El Diputado Corneche</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,7 +8359,7 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>1930</v>
+        <v>190</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4208&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Línea de Subtransmisión Eléctrica de 66 kV y Subestación La Manga</t>
+          <t>Grupo de Engorda Broiler La Liguana Corneche</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8403,15 +8403,15 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>920</v>
+        <v>1930</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>03/08/2001</t>
+          <t>06/08/2001</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Sectores de Destete-Venta de Cerdos El Mormón y El Cura Corneche</t>
+          <t>Línea de Subtransmisión Eléctrica de 66 kV y Subestación La Manga</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8451,15 +8451,15 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>3010</v>
+        <v>920</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>11/07/2001</t>
+          <t>03/08/2001</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8469,7 +8469,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4423&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8484,30 +8484,30 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Sectores de Destete-Venta de Cerdos El Mormón y El Cura Corneche</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>1230</v>
+        <v>3010</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>11/07/2001</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,30 +8532,30 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Modificación Sector de Engorda a Destete-Venta Plantel de Cerdos El Tótem Corneche</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>950</v>
+        <v>1230</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>30/03/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8565,7 +8565,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Modificación Sector de Engorda a Destete - Venta Plateles de Cerdos La Manga 1 y 2 (El Alcalde y Consejales) La Manga</t>
+          <t>Modificación Sector de Engorda a Destete-Venta Plantel de Cerdos El Tótem Corneche</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,7 +8599,7 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>2000</v>
+        <v>950</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Modificación Sector de Engorda a Destete - Venta Plantel de Cerdos La Noria</t>
+          <t>Modificación Sector de Engorda a Destete - Venta Plateles de Cerdos La Manga 1 y 2 (El Alcalde y Consejales) La Manga</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>860</v>
+        <v>2000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3805&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Modificación Sector de Engorda a Destete - Venta Plantel de Cerdos Corneche Corneche.</t>
+          <t>Modificación Sector de Engorda a Destete - Venta Plantel de Cerdos La Noria</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,11 +8695,11 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>800</v>
+        <v>860</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>26/01/2001</t>
+          <t>30/03/2001</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8709,7 +8709,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3805&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Modificación Sector de Engorda a Destete - Venta Plantel de Cerdos Elhue Corneche</t>
+          <t>Modificación Sector de Engorda a Destete - Venta Plantel de Cerdos Corneche Corneche.</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Línea de Subtransmisión Eléctrica de 66 kV y Subestación Santa Rosa</t>
+          <t>Modificación Sector de Engorda a Destete - Venta Plantel de Cerdos Elhue Corneche</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8787,15 +8787,15 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>11/01/2001</t>
+          <t>26/01/2001</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3526&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Sector de Engorda Don Sata Localidad de Corneche</t>
+          <t>Línea de Subtransmisión Eléctrica de 66 kV y Subestación Santa Rosa</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8835,15 +8835,15 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1900</v>
+        <v>1000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>31/08/2000</t>
+          <t>11/01/2001</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8853,7 +8853,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3526&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Sector de Engorda de Cerdos Don Mata Corneche</t>
+          <t>Sector de Engorda Don Sata Localidad de Corneche</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Sectores de Engorda de Cerdos Pocillas Nº1 y Nº2</t>
+          <t>Sector de Engorda de Cerdos Don Mata Corneche</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>3800</v>
+        <v>1900</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>28/08/2000</t>
+          <t>31/08/2000</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8949,7 +8949,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8964,30 +8964,30 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Sectores de Engorda de Cerdos Pocillas Nº1 y Nº2</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>24/07/2000</t>
+          <t>28/08/2000</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -8997,7 +8997,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9012,30 +9012,30 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler Las Cornisas</t>
+          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>2370</v>
+        <v>3500</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>31/05/2000</t>
+          <t>24/07/2000</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9045,7 +9045,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2883&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler</t>
+          <t>Grupo de Engorda de Pollos Broiler Las Cornisas</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,7 +9079,7 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1930</v>
+        <v>2370</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2883&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler Demetrío.</t>
+          <t>Grupo de Engorda de Pollos Broiler</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>2370</v>
+        <v>1930</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2894&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler La Fiera</t>
+          <t>Grupo de Engorda de Pollos Broiler Demetrío.</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2894&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Almacenamiento Mezcla Transvase y Transporte de Sustancias Agroquímicas para la Fumigación de Suelos en la Comuna de Rengo VI Región</t>
+          <t>Grupo de Engorda de Pollos Broiler La Fiera</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9214,20 +9214,20 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>700</v>
+        <v>2370</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>30/05/2000</t>
+          <t>31/05/2000</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9237,7 +9237,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Sector de Engorda de Cerdos Divisadero 1 y 2</t>
+          <t>Almacenamiento Mezcla Transvase y Transporte de Sustancias Agroquímicas para la Fumigación de Suelos en la Comuna de Rengo VI Región</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9262,20 +9262,20 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>960</v>
+        <v>700</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>24/12/1999</t>
+          <t>30/05/2000</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2562&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Tranque Los Culenes Fundo Rinconada de Longovilo</t>
+          <t>Sector de Engorda de Cerdos Divisadero 1 y 2</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9315,15 +9315,15 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola La Rinconada de Longovilo Ltda.</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>380</v>
+        <v>960</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>16/12/1999</t>
+          <t>24/12/1999</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2519&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2562&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Mejoramiento de Servicio de Agua Potable Rural San Pedro - El Yali Comuna de San Pedro</t>
+          <t>Tranque Los Culenes Fundo Rinconada de Longovilo</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9363,15 +9363,15 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Sociedad Agrícola La Rinconada de Longovilo Ltda.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>160</v>
+        <v>380</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>04/11/1999</t>
+          <t>16/12/1999</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2519&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Bodega de Vinos Lo Miranda</t>
+          <t>Mejoramiento de Servicio de Agua Potable Rural San Pedro - El Yali Comuna de San Pedro</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9411,15 +9411,15 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Viña Lo Miranda Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>37000</v>
+        <v>160</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>04/08/1999</t>
+          <t>04/11/1999</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9429,7 +9429,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Bodega de Vinos Lo Miranda</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9454,20 +9454,20 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Viña Lo Miranda Ltda.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>2500</v>
+        <v>37000</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>04/08/1999</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9477,7 +9477,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Laguna de Estabilización Sector Maitenlahue</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9507,15 +9507,15 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>11/08/1998</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9525,7 +9525,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Cerdos La Noria</t>
+          <t>Laguna de Estabilización Sector Maitenlahue</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9550,7 +9550,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -9559,11 +9559,11 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>1810</v>
+        <v>210</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>10/06/1998</t>
+          <t>11/08/1998</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9573,7 +9573,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Cerdos Las Brisas y Castrol</t>
+          <t>Grupo de Engorda de Cerdos La Noria</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,11 +9607,11 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>3000</v>
+        <v>1810</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>12/05/1998</t>
+          <t>10/06/1998</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9621,7 +9621,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Cerdos Elhué</t>
+          <t>Grupo de Engorda de Cerdos Las Brisas y Castrol</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,11 +9655,11 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>1810</v>
+        <v>3000</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>13/04/1998</t>
+          <t>12/05/1998</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9669,7 +9669,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta Compartida</t>
+          <t>Grupo de Engorda de Cerdos Elhué</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9694,20 +9694,20 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>11000</v>
+        <v>1810</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>25/03/1998</t>
+          <t>13/04/1998</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9717,7 +9717,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta Única</t>
+          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta Compartida</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9765,7 +9765,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=879&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Grupo Nº22 Sector Longovilo</t>
+          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta Única</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9790,20 +9790,20 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>7260</v>
+        <v>11000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>08/03/1998</t>
+          <t>25/03/1998</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=879&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Actualización Sistema de Alcantarillado de San Pedro</t>
+          <t>Grupo Nº22 Sector Longovilo</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,15 +9843,15 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Pedro</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>400</v>
+        <v>7260</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>05/03/1998</t>
+          <t>08/03/1998</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=843&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Plantel Porcino</t>
+          <t>Actualización Sistema de Alcantarillado de San Pedro</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9891,15 +9891,15 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Agrícola El Monte S.A</t>
+          <t>Ilustre Municipalidad de San Pedro</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>9590</v>
+        <v>400</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>04/03/1998</t>
+          <t>05/03/1998</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9909,7 +9909,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=843&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Grupos de Engorda El Milagro</t>
+          <t>Plantel Porcino</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9939,15 +9939,15 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Agrícola El Monte S.A</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>1000</v>
+        <v>9590</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>28/01/1998</t>
+          <t>04/03/1998</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9957,7 +9957,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Grupos de Engorda La Manga I y II</t>
+          <t>Grupos de Engorda El Milagro</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -10005,7 +10005,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Embalse de Temporada para Riego</t>
+          <t>Grupos de Engorda La Manga I y II</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10035,15 +10035,15 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Sociedad Agricola Las Palmas de Santa Rosa</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>12/12/1997</t>
+          <t>28/01/1998</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10053,7 +10053,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1059&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Alimentos Nº2</t>
+          <t>Embalse de Temporada para Riego</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10083,15 +10083,15 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Sociedad Agricola Las Palmas de Santa Rosa</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>12600</v>
+        <v>4000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>09/12/1997</t>
+          <t>12/12/1997</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10101,7 +10101,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=826&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1059&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Base de Operaciones Demarco S.A. Boca Sur San Pedro</t>
+          <t>Ampliación Fábrica de Alimentos Nº2</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10126,20 +10126,20 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Demarco S.A. y Kenbourne Ingenería Ambiental S.A. (KIASA)</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>80</v>
+        <v>12600</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>26/11/1997</t>
+          <t>09/12/1997</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10149,7 +10149,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=826&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Plantel de Porcinos Grupo de Reproductores de Cerdos Nº 20 y 21</t>
+          <t>Base de Operaciones Demarco S.A. Boca Sur San Pedro</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10174,20 +10174,20 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Demarco S.A. y Kenbourne Ingenería Ambiental S.A. (KIASA)</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>14000</v>
+        <v>80</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>16/09/1997</t>
+          <t>26/11/1997</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10197,7 +10197,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10212,43 +10212,91 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
+          <t>Plantel de Porcinos Grupo de Reproductores de Cerdos Nº 20 y 21</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Agrícola Super Limitada</t>
+        </is>
+      </c>
+      <c r="F206" t="n">
+        <v>14000</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>16/09/1997</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=310&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>San Pedro</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
           <t>Distribución Gas Natural en Intercomuna Concepción</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr">
+      <c r="C207" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr">
+      <c r="D207" t="inlineStr">
         <is>
           <t>Octava</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr">
+      <c r="E207" t="inlineStr">
         <is>
           <t>GASCO Concepción S.A.</t>
         </is>
       </c>
-      <c r="F206" t="n">
+      <c r="F207" t="n">
         <v>13650</v>
       </c>
-      <c r="G206" t="inlineStr">
+      <c r="G207" t="inlineStr">
         <is>
           <t>05/05/1997</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
+      <c r="H207" t="inlineStr">
         <is>
           <t>Desistido</t>
         </is>
       </c>
-      <c r="I206" t="inlineStr">
+      <c r="I207" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1006&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J206" t="inlineStr">
+      <c r="J207" t="inlineStr">
         <is>
           <t>San Pedro</t>
         </is>

--- a/data/San Pedro.xlsx
+++ b/data/San Pedro.xlsx
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Plantel de Aves Patagua</t>
+          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,16 +3890,16 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Agrícola Chorombo S.A.</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>8350</v>
+        <v>200</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5434881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
+          <t>Plantel de Aves Patagua</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,16 +3938,16 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>Agrícola Chorombo S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>200</v>
+        <v>8350</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5434881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5091,11 +5091,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5104,12 +5104,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5139,11 +5139,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5152,12 +5152,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Embalse de acumulación de aguas de riego Fundo Trinidad, sector Longovilo (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5427,11 +5427,11 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>AGRICOLA LA TRINIDAD LIMITADA</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>160</v>
+        <v>680</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3056315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Embalse de acumulación de aguas de riego Fundo Trinidad, sector Longovilo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5475,11 +5475,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>AGRICOLA LA TRINIDAD LIMITADA</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>680</v>
+        <v>160</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3056315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler Las Cornisas</t>
+          <t>Grupo de Engorda de Pollos Broiler Demetrío.</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9093,7 +9093,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2883&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2894&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler</t>
+          <t>Grupo de Engorda de Pollos Broiler La Fiera</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1930</v>
+        <v>2370</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler Demetrío.</t>
+          <t>Grupo de Engorda de Pollos Broiler Las Cornisas</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2894&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2883&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler La Fiera</t>
+          <t>Grupo de Engorda de Pollos Broiler</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,7 +9223,7 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>2370</v>
+        <v>1930</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">

--- a/data/San Pedro.xlsx
+++ b/data/San Pedro.xlsx
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
+          <t>Plantel de Aves Patagua</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,16 +3890,16 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>Agrícola Chorombo S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>200</v>
+        <v>8350</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5434881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Plantel de Aves Patagua</t>
+          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,16 +3938,16 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Agrícola Chorombo S.A.</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>8350</v>
+        <v>200</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5434881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5091,11 +5091,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5104,12 +5104,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5139,11 +5139,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5152,12 +5152,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Embalse de acumulación de aguas de riego Fundo Trinidad, sector Longovilo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5427,11 +5427,11 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>AGRICOLA LA TRINIDAD LIMITADA</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>680</v>
+        <v>160</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3056315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Embalse de acumulación de aguas de riego Fundo Trinidad, sector Longovilo (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5475,11 +5475,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>AGRICOLA LA TRINIDAD LIMITADA</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>160</v>
+        <v>680</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3056315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler Demetrío.</t>
+          <t>Grupo de Engorda de Pollos Broiler Las Cornisas</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9093,7 +9093,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2894&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2883&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler La Fiera</t>
+          <t>Grupo de Engorda de Pollos Broiler</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>2370</v>
+        <v>1930</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler Las Cornisas</t>
+          <t>Grupo de Engorda de Pollos Broiler Demetrío.</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2883&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2894&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler</t>
+          <t>Grupo de Engorda de Pollos Broiler La Fiera</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,7 +9223,7 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>1930</v>
+        <v>2370</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">

--- a/data/San Pedro.xlsx
+++ b/data/San Pedro.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>31/08/2022</t>
+          <t>18/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Pedro.xlsx
+++ b/data/San Pedro.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2022</t>
+          <t>22/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
+          <t>Plantel de Aves Patagua</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,16 +3890,16 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>Agrícola Chorombo S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>200</v>
+        <v>8350</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5434881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Plantel de Aves Patagua</t>
+          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,16 +3938,16 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Agrícola Chorombo S.A.</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>8350</v>
+        <v>200</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5434881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5091,11 +5091,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5104,12 +5104,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5139,11 +5139,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5152,12 +5152,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Embalse de acumulación de aguas de riego Fundo Trinidad, sector Longovilo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5427,11 +5427,11 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>AGRICOLA LA TRINIDAD LIMITADA</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>680</v>
+        <v>160</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3056315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Embalse de acumulación de aguas de riego Fundo Trinidad, sector Longovilo (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5475,11 +5475,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>AGRICOLA LA TRINIDAD LIMITADA</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>160</v>
+        <v>680</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3056315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler Demetrío.</t>
+          <t>Grupo de Engorda de Pollos Broiler Las Cornisas</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9093,7 +9093,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2894&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2883&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler La Fiera</t>
+          <t>Grupo de Engorda de Pollos Broiler</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>2370</v>
+        <v>1930</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler Las Cornisas</t>
+          <t>Grupo de Engorda de Pollos Broiler Demetrío.</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2883&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2894&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler</t>
+          <t>Grupo de Engorda de Pollos Broiler La Fiera</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,7 +9223,7 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>1930</v>
+        <v>2370</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">

--- a/data/San Pedro.xlsx
+++ b/data/San Pedro.xlsx
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Plantel de Aves Patagua</t>
+          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,16 +3890,16 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Agrícola Chorombo S.A.</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>8350</v>
+        <v>200</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5434881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
+          <t>Plantel de Aves Patagua</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,16 +3938,16 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>Agrícola Chorombo S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>200</v>
+        <v>8350</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5434881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4855,7 +4855,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Emelectric S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5091,11 +5091,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5104,12 +5104,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5139,11 +5139,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5152,12 +5152,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Embalse de acumulación de aguas de riego Fundo Trinidad, sector Longovilo (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5427,11 +5427,11 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>AGRICOLA LA TRINIDAD LIMITADA</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>160</v>
+        <v>680</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3056315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Embalse de acumulación de aguas de riego Fundo Trinidad, sector Longovilo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5475,11 +5475,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>AGRICOLA LA TRINIDAD LIMITADA</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>680</v>
+        <v>160</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3056315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler Las Cornisas</t>
+          <t>Grupo de Engorda de Pollos Broiler Demetrío.</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9093,7 +9093,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2883&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2894&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler</t>
+          <t>Grupo de Engorda de Pollos Broiler La Fiera</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1930</v>
+        <v>2370</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler Demetrío.</t>
+          <t>Grupo de Engorda de Pollos Broiler Las Cornisas</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2894&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2883&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler La Fiera</t>
+          <t>Grupo de Engorda de Pollos Broiler</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,7 +9223,7 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>2370</v>
+        <v>1930</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">

--- a/data/San Pedro.xlsx
+++ b/data/San Pedro.xlsx
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
+          <t>Plantel de Aves Patagua</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,16 +3890,16 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>Agrícola Chorombo S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>200</v>
+        <v>8350</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5434881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Plantel de Aves Patagua</t>
+          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,16 +3938,16 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Agrícola Chorombo S.A.</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>8350</v>
+        <v>200</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5434881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5091,11 +5091,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5104,12 +5104,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5139,11 +5139,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5152,12 +5152,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Embalse de acumulación de aguas de riego Fundo Trinidad, sector Longovilo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5427,11 +5427,11 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>AGRICOLA LA TRINIDAD LIMITADA</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>680</v>
+        <v>160</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3056315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Embalse de acumulación de aguas de riego Fundo Trinidad, sector Longovilo (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5475,11 +5475,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>AGRICOLA LA TRINIDAD LIMITADA</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>160</v>
+        <v>680</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3056315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -8451,7 +8451,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -8835,7 +8835,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler Demetrío.</t>
+          <t>Grupo de Engorda de Pollos Broiler Las Cornisas</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9093,7 +9093,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2894&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2883&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler La Fiera</t>
+          <t>Grupo de Engorda de Pollos Broiler</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>2370</v>
+        <v>1930</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler Las Cornisas</t>
+          <t>Grupo de Engorda de Pollos Broiler Demetrío.</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2883&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2894&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler</t>
+          <t>Grupo de Engorda de Pollos Broiler La Fiera</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,7 +9223,7 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>1930</v>
+        <v>2370</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">

--- a/data/San Pedro.xlsx
+++ b/data/San Pedro.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
+          <t>Plantel de Aves Patagua</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,16 +3890,16 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>Agrícola Chorombo S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>200</v>
+        <v>8350</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5434881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Plantel de Aves Patagua</t>
+          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,16 +3938,16 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Agrícola Chorombo S.A.</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>8350</v>
+        <v>200</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5434881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5091,11 +5091,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5104,12 +5104,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5139,11 +5139,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5152,12 +5152,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Embalse de acumulación de aguas de riego Fundo Trinidad, sector Longovilo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5427,11 +5427,11 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>AGRICOLA LA TRINIDAD LIMITADA</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>680</v>
+        <v>160</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3056315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Embalse de acumulación de aguas de riego Fundo Trinidad, sector Longovilo (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5475,11 +5475,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>AGRICOLA LA TRINIDAD LIMITADA</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>160</v>
+        <v>680</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3056315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler Demetrío.</t>
+          <t>Grupo de Engorda de Pollos Broiler Las Cornisas</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9093,7 +9093,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2894&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2883&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler La Fiera</t>
+          <t>Grupo de Engorda de Pollos Broiler</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>2370</v>
+        <v>1930</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler Las Cornisas</t>
+          <t>Grupo de Engorda de Pollos Broiler Demetrío.</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2883&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2894&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Grupo de Engorda de Pollos Broiler</t>
+          <t>Grupo de Engorda de Pollos Broiler La Fiera</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,7 +9223,7 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>1930</v>
+        <v>2370</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
